--- a/config/testcases/Report_MJ.VI01VideoInteractive(Clone).xlsx
+++ b/config/testcases/Report_MJ.VI01VideoInteractive(Clone).xlsx
@@ -13,14 +13,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="Nr00LP48JyaE1mixwrjJrNGcmW4Cgx8tbSVywgvaHzw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="LbStWC8id+6UTeU72mOGubd/+Uai97w9Dw1yGw7pYik="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
   <si>
     <t>TCID</t>
   </si>
@@ -184,7 +184,7 @@
     <t>Video player</t>
   </si>
   <si>
-    <t>$.turn[0].word[0].video[0].path</t>
+    <t>$.turn[0].word[0].video[*].file_path</t>
   </si>
   <si>
     <t>Reset index</t>
@@ -193,7 +193,7 @@
     <t>setVariableFile</t>
   </si>
   <si>
-    <t>index,1</t>
+    <t>index,0</t>
   </si>
   <si>
     <t>Đợi frame video có thể click</t>
@@ -202,10 +202,25 @@
     <t>waitForNumber</t>
   </si>
   <si>
-    <t>Video player,VideoPlayer,frame,300</t>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color theme="1"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>Video player,VideoPlayer,frame,300,</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF38761D"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>$.index</t>
+    </r>
   </si>
   <si>
-    <t>$.turn[0].word[0].video[0].interactive[?(@.touch_vector.length&gt;0)][$.index].out</t>
+    <t>$.turn[0].word[0].video[0].interactive[?(@.touch_vector!="")].out</t>
   </si>
   <si>
     <t>Chụp ảnh</t>
@@ -219,7 +234,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>D:\\tool_test_game\\config\\data\\image,unit2,image_</t>
+      <t>D:\\tool_test_game\\config\\data\\image,image_</t>
     </r>
     <r>
       <rPr>
@@ -239,10 +254,19 @@
     <t>addVariableFile</t>
   </si>
   <si>
+    <t>index,1</t>
+  </si>
+  <si>
     <t>Đợi màn hình chọn act xuất hiện</t>
   </si>
   <si>
-    <t>SelectActivity//ButtonClose,30</t>
+    <t>SelectActivity//ButtonClose,300</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>second,1</t>
   </si>
   <si>
     <t>Click thoát acts</t>
@@ -260,13 +284,7 @@
     <t>Loop value</t>
   </si>
   <si>
-    <t>Calcuate_loop_value</t>
-  </si>
-  <si>
     <t>$.length($.turn[0].word[0].video[0].interactive[?(@.touch_vector!="")].length())</t>
-  </si>
-  <si>
-    <t>-,1</t>
   </si>
   <si>
     <t xml:space="preserve">Tổng số lần chạm </t>
@@ -469,20 +487,23 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -492,9 +513,6 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1088,7 +1106,7 @@
     <col customWidth="1" min="1" max="2" width="12.13"/>
     <col customWidth="1" min="3" max="3" width="43.75"/>
     <col customWidth="1" min="4" max="4" width="22.0"/>
-    <col customWidth="1" min="5" max="5" width="35.88"/>
+    <col customWidth="1" min="5" max="5" width="46.75"/>
     <col customWidth="1" min="6" max="6" width="34.75"/>
     <col customWidth="1" min="7" max="7" width="10.63"/>
     <col customWidth="1" min="8" max="8" width="18.25"/>
@@ -1435,10 +1453,10 @@
     </row>
     <row r="9" ht="24.75" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>55</v>
@@ -1531,14 +1549,16 @@
       <c r="E11" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="37" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="13"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="37"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -1569,16 +1589,16 @@
         <v>67</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="37" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -1603,13 +1623,13 @@
         <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>69</v>
+      <c r="E13" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="15" t="s">
@@ -1639,20 +1659,16 @@
       <c r="A14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="29" t="s">
         <v>71</v>
       </c>
+      <c r="E14" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="F14" s="14"/>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="37" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="5"/>
@@ -1675,30 +1691,70 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L14 M1:N1">
+  <conditionalFormatting sqref="L1:L15 M1:N1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L14 M1:N1">
+  <conditionalFormatting sqref="L1:L15 M1:N1">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L14 M1:N1">
+  <conditionalFormatting sqref="L1:L15 M1:N1">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G14">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G15">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D14 H2:H14">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D15 H2:H15">
       <formula1>Keywords!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A14">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A15">
       <formula1>TestCase!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
@@ -1722,91 +1778,84 @@
     <col customWidth="1" min="2" max="2" width="76.5"/>
     <col customWidth="1" min="3" max="3" width="9.13"/>
     <col customWidth="1" min="4" max="4" width="14.13"/>
-    <col customWidth="1" min="5" max="5" width="17.88"/>
-    <col customWidth="1" min="6" max="6" width="24.63"/>
+    <col customWidth="1" min="5" max="5" width="24.63"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>74</v>
+      <c r="B1" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="43">
+      <c r="B2" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="44">
         <v>1.0</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -17144,10 +17193,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
